--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100812.682538652</v>
+        <v>18315861.67820151</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100812.682538652</v>
+        <v>18315861.67820151</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>243217.3179284541</v>
+        <v>29312403.27398308</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>243217.3179284541</v>
+        <v>29312403.27398308</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1489843851.251326</v>
+        <v>24416047.0733739</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17332.60872458772</v>
+        <v>629537.0608790608</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33936.48587467749</v>
+        <v>1110945.549132602</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50467.70475413433</v>
+        <v>1592354.037386143</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66443.24963940475</v>
+        <v>2070509.929618991</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82422.45496140614</v>
+        <v>2552677.68899553</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>98388.89831473528</v>
+        <v>3034081.52837207</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>114355.3566524006</v>
+        <v>3515485.367748613</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130321.8149900658</v>
+        <v>3996889.207125156</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>146962.2100511587</v>
+        <v>4341296.649789576</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>163172.9305129614</v>
+        <v>4853412.771299542</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>179142.7312252209</v>
+        <v>5333653.147483994</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>195112.5319374804</v>
+        <v>5813893.523668447</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>211082.3326497397</v>
+        <v>6294133.8998529</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>227087.4867396318</v>
+        <v>6765522.09840393</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>243833.7597750464</v>
+        <v>7099386.782280547</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>115</v>
@@ -27052,10 +27052,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
